--- a/data/book.xlsx
+++ b/data/book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kesha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{58F4E59A-D32A-423C-ACE5-29B25F74872D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{94980D04-7952-43A8-89CF-48BB072AC662}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8655" windowHeight="4470" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8655" windowHeight="4470" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE 2017" sheetId="14" r:id="rId1"/>
@@ -13510,8 +13510,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -14006,7 +14007,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -14067,6 +14068,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -14448,8 +14453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31172,7 +31177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AW64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
@@ -41716,8 +41721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:AP1048576"/>
+    <sheetView topLeftCell="E66" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44725,8 +44730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47753,7 +47758,7 @@
   <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54980,15 +54985,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -55046,7 +55051,7 @@
       <c r="F2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="26">
         <v>35485</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -55081,7 +55086,7 @@
       <c r="F3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="26">
         <v>36089</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -55117,7 +55122,7 @@
       <c r="F4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="26">
         <v>35863</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -55153,7 +55158,7 @@
       <c r="F5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="26">
         <v>35859</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -55189,7 +55194,7 @@
       <c r="F6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="26">
         <v>36139</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -55225,7 +55230,7 @@
       <c r="F7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="26">
         <v>35810</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -55261,7 +55266,7 @@
       <c r="F8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="26">
         <v>36083</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -55297,7 +55302,7 @@
       <c r="F9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="26">
         <v>35962</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -55333,7 +55338,7 @@
       <c r="F10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="26">
         <v>35884</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -55369,7 +55374,7 @@
       <c r="F11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="26">
         <v>35893</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -55405,7 +55410,7 @@
       <c r="F12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="26">
         <v>36360</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -55441,7 +55446,7 @@
       <c r="F13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="26">
         <v>35863</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -55477,7 +55482,7 @@
       <c r="F14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="26">
         <v>36072</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -55513,7 +55518,7 @@
       <c r="F15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="26">
         <v>35447</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -55549,7 +55554,7 @@
       <c r="F16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="26">
         <v>35825</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -55585,7 +55590,7 @@
       <c r="F17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="26">
         <v>36435</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -55621,7 +55626,7 @@
       <c r="F18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="26">
         <v>35864</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -55657,7 +55662,7 @@
       <c r="F19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="26">
         <v>36096</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -55693,7 +55698,7 @@
       <c r="F20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="26">
         <v>35582</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -55729,7 +55734,7 @@
       <c r="F21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="26">
         <v>36075</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -55765,7 +55770,7 @@
       <c r="F22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="26">
         <v>36047</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -55801,7 +55806,7 @@
       <c r="F23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="26">
         <v>35430</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -55837,7 +55842,7 @@
       <c r="F24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="26">
         <v>35343</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -55873,7 +55878,7 @@
       <c r="F25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="26">
         <v>35810</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -55909,7 +55914,7 @@
       <c r="F26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="26">
         <v>35536</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -55945,7 +55950,7 @@
       <c r="F27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="26">
         <v>35834</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -55981,7 +55986,7 @@
       <c r="F28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="26">
         <v>36114</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -56017,7 +56022,7 @@
       <c r="F29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="26">
         <v>36006</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -56053,7 +56058,7 @@
       <c r="F30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="26">
         <v>36251</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -56089,7 +56094,7 @@
       <c r="F31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="26">
         <v>35545</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -56125,7 +56130,7 @@
       <c r="F32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="26">
         <v>36468</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -56161,7 +56166,7 @@
       <c r="F33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="26">
         <v>35868</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -56197,7 +56202,7 @@
       <c r="F34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="26">
         <v>35921</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -56233,7 +56238,7 @@
       <c r="F35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="26">
         <v>36022</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -56269,7 +56274,7 @@
       <c r="F36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="26">
         <v>36396</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -56305,7 +56310,7 @@
       <c r="F37" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="26">
         <v>36109</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -56341,7 +56346,7 @@
       <c r="F38" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="26">
         <v>36079</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -56377,7 +56382,7 @@
       <c r="F39" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="26">
         <v>35691</v>
       </c>
       <c r="H39" s="1" t="s">
@@ -56413,7 +56418,7 @@
       <c r="F40" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G40" s="26">
         <v>36097</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -56449,7 +56454,7 @@
       <c r="F41" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="26">
         <v>35565</v>
       </c>
       <c r="H41" s="1" t="s">
@@ -56485,7 +56490,7 @@
       <c r="F42" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="26">
         <v>35729</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -56521,7 +56526,7 @@
       <c r="F43" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G43" s="26">
         <v>35359</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -56557,7 +56562,7 @@
       <c r="F44" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G44" s="26">
         <v>35833</v>
       </c>
       <c r="H44" s="1" t="s">
@@ -56593,7 +56598,7 @@
       <c r="F45" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G45" s="26">
         <v>35977</v>
       </c>
       <c r="H45" s="1" t="s">
@@ -56629,7 +56634,7 @@
       <c r="F46" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="27">
         <v>35631</v>
       </c>
       <c r="H46" s="16" t="s">
@@ -56665,7 +56670,7 @@
       <c r="F47" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G47" s="26">
         <v>36030</v>
       </c>
       <c r="H47" s="1" t="s">
@@ -56701,7 +56706,7 @@
       <c r="F48" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G48" s="26">
         <v>35437</v>
       </c>
       <c r="H48" s="1" t="s">
@@ -56737,7 +56742,7 @@
       <c r="F49" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G49" s="26">
         <v>36075</v>
       </c>
       <c r="H49" s="1" t="s">
@@ -56773,7 +56778,7 @@
       <c r="F50" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="27">
         <v>35832</v>
       </c>
       <c r="H50" s="16" t="s">
@@ -56809,7 +56814,7 @@
       <c r="F51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="26">
         <v>35895</v>
       </c>
       <c r="H51" s="1" t="s">
@@ -56845,7 +56850,7 @@
       <c r="F52" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G52" s="26">
         <v>35907</v>
       </c>
       <c r="H52" s="1" t="s">
@@ -56881,7 +56886,7 @@
       <c r="F53" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G53" s="26">
         <v>35789</v>
       </c>
       <c r="H53" s="1" t="s">
@@ -56917,7 +56922,7 @@
       <c r="F54" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G54" s="26">
         <v>35744</v>
       </c>
       <c r="H54" s="1" t="s">
@@ -56953,7 +56958,7 @@
       <c r="F55" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G55" s="26">
         <v>42619</v>
       </c>
       <c r="H55" s="1" t="s">
@@ -56989,7 +56994,7 @@
       <c r="F56" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G56" s="26">
         <v>35884</v>
       </c>
       <c r="H56" s="1" t="s">
@@ -57025,7 +57030,7 @@
       <c r="F57" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G57" s="26">
         <v>35523</v>
       </c>
       <c r="H57" s="1" t="s">
@@ -57061,7 +57066,7 @@
       <c r="F58" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G58" s="26">
         <v>35473</v>
       </c>
       <c r="H58" s="1" t="s">
@@ -57097,7 +57102,7 @@
       <c r="F59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G59" s="26">
         <v>42579</v>
       </c>
       <c r="H59" s="1" t="s">
@@ -57133,7 +57138,7 @@
       <c r="F60" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="26">
         <v>36033</v>
       </c>
       <c r="H60" s="1" t="s">
@@ -57169,7 +57174,7 @@
       <c r="F61" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G61" s="26">
         <v>35872</v>
       </c>
       <c r="H61" s="1" t="s">
@@ -57205,7 +57210,7 @@
       <c r="F62" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G62" s="26">
         <v>36046</v>
       </c>
       <c r="H62" s="1" t="s">
@@ -57241,7 +57246,7 @@
       <c r="F63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G63" s="26">
         <v>36230</v>
       </c>
       <c r="H63" s="1" t="s">
@@ -57277,7 +57282,7 @@
       <c r="F64" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G64" s="26">
         <v>34938</v>
       </c>
       <c r="H64" s="1" t="s">
@@ -57313,7 +57318,7 @@
       <c r="F65" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G65" s="18">
+      <c r="G65" s="27">
         <v>34938</v>
       </c>
       <c r="H65" s="16" t="s">
@@ -57349,7 +57354,7 @@
       <c r="F66" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G66" s="14">
+      <c r="G66" s="26">
         <v>35715</v>
       </c>
       <c r="H66" s="1" t="s">
@@ -57385,7 +57390,7 @@
       <c r="F67" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G67" s="14">
+      <c r="G67" s="26">
         <v>35915</v>
       </c>
       <c r="H67" s="1" t="s">
@@ -57421,7 +57426,7 @@
       <c r="F68" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G68" s="26">
         <v>35784</v>
       </c>
       <c r="H68" s="1" t="s">
@@ -57457,7 +57462,7 @@
       <c r="F69" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G69" s="14">
+      <c r="G69" s="26">
         <v>34842</v>
       </c>
       <c r="H69" s="1" t="s">
@@ -57493,7 +57498,7 @@
       <c r="F70" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G70" s="26">
         <v>34754</v>
       </c>
       <c r="H70" s="1" t="s">
@@ -57529,7 +57534,7 @@
       <c r="F71" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G71" s="14">
+      <c r="G71" s="26">
         <v>35857</v>
       </c>
       <c r="H71" s="1" t="s">
@@ -57552,7 +57557,7 @@
     <sortCondition ref="E2:E71"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -57560,8 +57565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AW46"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/book.xlsx
+++ b/data/book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kesha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{94980D04-7952-43A8-89CF-48BB072AC662}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2D4ACC65-7177-4C83-B986-F619B630508D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8655" windowHeight="4470" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE 2017" sheetId="14" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="ECE 2019" sheetId="6" r:id="rId11"/>
     <sheet name="ECE 2020" sheetId="2" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -13512,7 +13512,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -14068,10 +14068,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -14453,8 +14453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14519,8 +14519,8 @@
       <c r="F2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="14">
-        <v>34100</v>
+      <c r="G2" s="3">
+        <v>35202</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>1256</v>
@@ -17093,6 +17093,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -44730,7 +44731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -44802,7 +44803,7 @@
       <c r="G2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="3">
         <v>36016</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -47750,6 +47751,7 @@
     <sortCondition ref="F2:F314"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/book.xlsx
+++ b/data/book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kesha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7F41B29D-DA14-4307-BC5E-518C9FE55BD1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5600012A-5A5F-4DF6-B670-A2F9391C2E7F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10110" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE 2017" sheetId="14" r:id="rId1"/>
@@ -14007,7 +14007,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -14072,6 +14072,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -14453,7 +14456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -47759,8 +47762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47824,8 +47827,8 @@
       <c r="F2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="14">
-        <v>34312</v>
+      <c r="G2" s="28">
+        <v>35209</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>813</v>
@@ -50005,6 +50008,7 @@
     <sortCondition ref="E2:E62"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/book.xlsx
+++ b/data/book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kesha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EC58C96C-88BD-4C48-89B2-15402FF07097}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E5791C2E-CC99-47E3-89BB-C5062E906D83}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13503,7 +13503,7 @@
     <t>2016-2020</t>
   </si>
   <si>
-    <t>Abhijeet yadav1</t>
+    <t>Abhijeet yadav2</t>
   </si>
 </sst>
 </file>
@@ -14457,7 +14457,7 @@
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14523,7 +14523,7 @@
         <v>61</v>
       </c>
       <c r="G2" s="3">
-        <v>35213</v>
+        <v>35217</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>1255</v>
@@ -14559,7 +14559,7 @@
         <v>61</v>
       </c>
       <c r="G3" s="14">
-        <v>35213</v>
+        <v>35125</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>1303</v>
